--- a/data/trans_bre/P68-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P68-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-13.75865743210933</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5.536544410187963</v>
+        <v>5.536544410187966</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.1516234755841729</v>
@@ -649,7 +649,7 @@
         <v>-0.3419765778994366</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.251177085701481</v>
+        <v>0.2511770857014811</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.83373246329186</v>
+        <v>-12.58800658779423</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.20842302568563</v>
+        <v>-15.51399318906569</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-26.99404792826654</v>
+        <v>-27.07145856296174</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.10438427797589</v>
+        <v>-4.591058384141721</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4069736585045932</v>
+        <v>-0.3998127109422279</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3898387293267712</v>
+        <v>-0.4165286627622529</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.6016224734276527</v>
+        <v>-0.5946233311617645</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2011912020631264</v>
+        <v>-0.1927190622291497</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.163017507471441</v>
+        <v>4.027465818759909</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.330224767761239</v>
+        <v>5.564947958775397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.281330201793639</v>
+        <v>0.3997755366388437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.47557660766622</v>
+        <v>16.05407846360395</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1572160418211966</v>
+        <v>0.14034760844865</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.237745464668704</v>
+        <v>0.1938306162514484</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01110959311240635</v>
+        <v>0.02871073038888174</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.904874333887425</v>
+        <v>0.9069771810679743</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-5.697126559994531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.447497592262033</v>
+        <v>2.447497592262041</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2037127142699575</v>
@@ -749,7 +749,7 @@
         <v>-0.2290360421728468</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.1134779290732075</v>
+        <v>0.1134779290732079</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.409993188362463</v>
+        <v>-9.29485256165019</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.314027352738938</v>
+        <v>-6.436624867556819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.05768547097599</v>
+        <v>-9.91209372076057</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.097065895685427</v>
+        <v>-0.6887386646918368</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3441868629589545</v>
+        <v>-0.3402220255888037</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2330004212109252</v>
+        <v>-0.2488933820053837</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3728879862328364</v>
+        <v>-0.3663366144417206</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.04620417328170619</v>
+        <v>-0.02909067543932918</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.8502031892038974</v>
+        <v>-0.3767965606776522</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.957961047710747</v>
+        <v>3.024976372353984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.009540884474322</v>
+        <v>-1.259370673129472</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.994119620279267</v>
+        <v>6.225186559852791</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.03969294795595579</v>
+        <v>-0.01476191459012371</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1257931499957517</v>
+        <v>0.1313148416107437</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.04236082113097797</v>
+        <v>-0.05391290090053379</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3025812011601181</v>
+        <v>0.3161932933096153</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.484728892403223</v>
+        <v>-2.368244813045165</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.575142797468001</v>
+        <v>-2.216050479423527</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.3831066031128625</v>
+        <v>-1.045633729190511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.6584389310846344</v>
+        <v>-1.354106629827268</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.125061879981464</v>
+        <v>-0.1077945058195835</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.08987873789169624</v>
+        <v>-0.1317265273915992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.02828568121615465</v>
+        <v>-0.05408535485283588</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.03302337495126911</v>
+        <v>-0.0732685264979278</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.826992779446185</v>
+        <v>10.09078344716738</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.01780145414507</v>
+        <v>12.12069327990695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.88620481814034</v>
+        <v>12.48600917002114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.612759938718067</v>
+        <v>9.466799891297237</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6031954482545105</v>
+        <v>0.6502314257572921</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.099304507350721</v>
+        <v>1.004359163635384</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8770043942326923</v>
+        <v>0.8249741107157736</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7476205843671093</v>
+        <v>0.696336255922183</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.54290424669759</v>
+        <v>-6.51508826668451</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.364574772415119</v>
+        <v>-4.451274576054963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.397005232985676</v>
+        <v>-7.490798555918039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1681389344833846</v>
+        <v>0.2239849873565638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2511143404861491</v>
+        <v>-0.2484361715693981</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1796162388661358</v>
+        <v>-0.1747983796247715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2768203789734166</v>
+        <v>-0.282733814997007</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.006574071361742284</v>
+        <v>0.01461240853059363</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1933778518385788</v>
+        <v>-0.0213151350979501</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.998215358807887</v>
+        <v>3.106500597336878</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.258598918284708</v>
+        <v>-0.2468748588376566</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.724108618391241</v>
+        <v>5.863952246812588</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.004997342863817259</v>
+        <v>0.004506010130662294</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1317175171699665</v>
+        <v>0.1389849890204503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.00633330026315509</v>
+        <v>-0.01089561276743839</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2989207290345796</v>
+        <v>0.3183823150921129</v>
       </c>
     </row>
     <row r="16">
